--- a/biology/Botanique/Berberis_brachypoda/Berberis_brachypoda.xlsx
+++ b/biology/Botanique/Berberis_brachypoda/Berberis_brachypoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berbéris à large pied ou épine-vinette à large pied (Berberis brachypoda) est une plante de la famille des Berbéridacées originaire de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste, pouvant atteindre 3 m de haut, aux branches arquées et aux longues épines trifurquées (parfois simples).
 Ses feuilles sont caduques et prennent une couleur rouge-orangé à l'automne.
@@ -548,7 +562,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une variété botanique est reconnue :
 Berberis brachypoda var. salicaria (Fedde) C.K.Schneid. (1908) - synonyme : Berberis salicaria Fedde</t>
@@ -579,7 +595,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Chine. Elle est actuellement largement répandue dans tous les pays à climat tempéré.
 </t>
@@ -610,7 +628,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce encore peu répandue en France. Un usage en haie libre pourrait se développer.
 </t>
